--- a/20190618_Fields_in_PIM_PRD_V1.5.xlsx
+++ b/20190618_Fields_in_PIM_PRD_V1.5.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="255">
   <si>
     <t xml:space="preserve">Field name</t>
   </si>
@@ -405,6 +405,12 @@
     <t xml:space="preserve">Chương trình tự liệt kê sau khi Admin, PJM, QC Admin assign users</t>
   </si>
   <si>
+    <t xml:space="preserve">link assign </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project term</t>
   </si>
   <si>
@@ -438,6 +444,9 @@
     <t xml:space="preserve">Ngày kết thúc (Nếu có). Nếu ko có thì để trống và tự hiểu là on-going. Nếu có ngày kết thúc (hoặc khi dự án kết thúc đối với dự án on-going, PM vào cập nhật ngày kết thúc ở đây), dự án sẽ chuyển thành "Inactive" sau ngày kết thúc.</t>
   </si>
   <si>
+    <t xml:space="preserve">inactive phải conform YES/NO → NO → change end date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project type</t>
   </si>
   <si>
@@ -456,6 +465,9 @@
     <t xml:space="preserve">Nếu PJM chọn "Online+Offline": thì 2 field này sẽ xuất hiện.</t>
   </si>
   <si>
+    <t xml:space="preserve">ode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Offline project's application</t>
   </si>
   <si>
@@ -495,12 +507,18 @@
     <t xml:space="preserve">Number + Drop-down list</t>
   </si>
   <si>
+    <t xml:space="preserve">them field </t>
+  </si>
+  <si>
     <t xml:space="preserve">Billing unit</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn: Record, field, document, per 1,000 characters, image, line item</t>
   </si>
   <si>
+    <t xml:space="preserve">setup code</t>
+  </si>
+  <si>
     <t xml:space="preserve"># types of form</t>
   </si>
   <si>
@@ -553,6 +571,9 @@
   </si>
   <si>
     <t xml:space="preserve">Drop-down list: 150%, 200%, 300%, None, Others (+ free text field)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT _cuoi t</t>
   </si>
   <si>
     <t xml:space="preserve">Charging rate_Holidays</t>
@@ -629,40 +650,63 @@
     <t xml:space="preserve">Số lượng FTE cần cho DA: tổng cộng hoặc per day - và cũng sẽ được chia nhỏ theo "Steps of Process"</t>
   </si>
   <si>
+    <t xml:space="preserve">number, cannot be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">them unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca làm việc của DPO match với danh sách ca trên eHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chương trình tự liệt kê sau khi Admin/ PJM assign users vào DPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thoi gian - ngay lam viec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security requirement_Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yều cầu bảo mật dự án: phòng riêng, camera, ISO, others (free text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop-down list + Free text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security, Legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security requirement_Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password for delivered files/ sFTP/ FTP/ None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security requirement_Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hỏi qua kênh nào (email, Sharepoint, online Excel, etc.), có được screenshot không, hoặc chỉ được mention record id, vv...Nếu không có thì để "None"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Free text, cannot be blank</t>
   </si>
   <si>
-    <t xml:space="preserve">Shift(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ca làm việc của DPO match với danh sách ca trên eHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chương trình tự liệt kê sau khi Admin/ PJM assign users vào DPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security requirement_Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yều cầu bảo mật dự án: phòng riêng, camera, ISO, others (free text)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop-down list + Free text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security, Legal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security requirement_Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password for delivered files/ sFTP/ FTP/ None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security requirement_Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hỏi qua kênh nào (email, Sharepoint, online Excel, etc.), có được screenshot không, hoặc chỉ được mention record id, vv...Nếu không có thì để "None"</t>
+    <t xml:space="preserve">change title
+Source
+Info</t>
   </si>
   <si>
     <t xml:space="preserve">Security requirement_Deleting Data</t>
@@ -671,6 +715,10 @@
     <t xml:space="preserve">Bao lâu thì bắt buộc phải xóa dữ liệu? Xóa những gì? Nếu không có thì để "None"</t>
   </si>
   <si>
+    <t xml:space="preserve">change title
+add more field</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contract type</t>
   </si>
   <si>
@@ -692,6 +740,9 @@
     <t xml:space="preserve">If the box is checked, an attachment is provided</t>
   </si>
   <si>
+    <t xml:space="preserve">co the attach file</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liệt kê HĐ liên quan DA này (SOW, NDA, vv...), link với bên Customer Information</t>
   </si>
   <si>
@@ -710,6 +761,9 @@
     <t xml:space="preserve">Nên có thông báo, hoặc gửi email đến những người có liên quan trong nội bộ công ty.</t>
   </si>
   <si>
+    <t xml:space="preserve">remove</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quality level</t>
   </si>
   <si>
@@ -729,6 +783,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lịch QC, nếu không QC thì phải đề ai confirm - từ bên quản lý DA, hoặc KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list frequency</t>
   </si>
   <si>
     <t xml:space="preserve">QAE</t>
@@ -744,18 +801,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -773,39 +827,81 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333399"/>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Mangal"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
       <family val="0"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -813,7 +909,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <u val="single"/>
@@ -821,10 +916,15 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,8 +933,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCE181E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -849,8 +985,20 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94070A"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF37B70"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -873,23 +1021,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -913,77 +1046,62 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -992,15 +1110,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,11 +1130,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1028,23 +1146,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1052,49 +1166,63 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Comma 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 3" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 4" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink 2" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Input 2" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 4" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 6" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Percent 2" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Percent 3" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Percent 4" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Category" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="TableStyleLight1" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="TableStyleLight1 2" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="TableStyleLight1 3" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="TableStyleLight1 4" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="TableStyleLight1 5" xfId="39" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="37" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF94070A"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1104,9 +1232,9 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF37B70"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFF200"/>
@@ -1122,7 +1250,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1130,15 +1258,15 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF3F3F76"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1160,7 +1288,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9"/>
   </cols>
   <sheetData>
@@ -1402,7 +1530,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1485,170 +1613,170 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1668,20 +1796,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I52" activeCellId="0" sqref="I52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="30.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="58.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="58.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="35.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="27.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="5" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="20.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="5" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,644 +1965,710 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="16" t="s">
         <v>142</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="16"/>
+        <v>142</v>
+      </c>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="14"/>
+      <c r="D18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="D19" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="14"/>
+      <c r="A21" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="A24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="14"/>
+      <c r="A25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="H28" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="14"/>
+      <c r="D32" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="12"/>
+      <c r="D33" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="14"/>
+      <c r="A34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" s="12"/>
+      <c r="A35" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="12"/>
+      <c r="A36" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="12"/>
+      <c r="A37" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="G38" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="14"/>
+      <c r="A39" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="16"/>
+      <c r="H39" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="12"/>
+      <c r="A40" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="H40" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="A41" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="14"/>
+      <c r="D41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="H41" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="H43" s="10" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="A44" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="12"/>
+      <c r="H46" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="14" t="s">
+      <c r="B47" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>223</v>
+      <c r="E47" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="H49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>230</v>
+        <v>247</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>230</v>
+        <v>247</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
